--- a/StructureDefinition-pmipairing-entity-name.xlsx
+++ b/StructureDefinition-pmipairing-entity-name.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-03-29T03:43:36+00:00</t>
+    <t>2022-03-30T01:18:45+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-pmipairing-entity-name.xlsx
+++ b/StructureDefinition-pmipairing-entity-name.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-03-30T01:18:45+00:00</t>
+    <t>2022-03-30T15:49:01+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-pmipairing-entity-name.xlsx
+++ b/StructureDefinition-pmipairing-entity-name.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-03-30T15:49:01+00:00</t>
+    <t>2022-03-30T16:10:16+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
